--- a/biology/Zoologie/Australopithecus_prometheus/Australopithecus_prometheus.xlsx
+++ b/biology/Zoologie/Australopithecus_prometheus/Australopithecus_prometheus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australopithecus prometheus est une espèce d'Australopithèque découverte en Afrique du Sud à Makapansgat et définie par Raymond Dart en 1948[1]. L'espèce a longtemps été considérée par la plupart des chercheurs comme synonyme d'Australopithecus africanus.
-Le fossile très complet de Little Foot découvert à Sterkfontein pourrait être rattaché à cette espèce et pourrait conduire à mieux la caractériser. Une révision de l'histoire géologique du site (circa 2014) menée depuis 2007 indique que Little Foot aurait au moins 3 millions d'années[2],[3]. Les scientifiques ont ensuite déterminé l’âge du squelette presque complet séparé du rocher auquel il était partiellement attaché. est 3,67 millions d’années[4],[5],[6]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Australopithecus prometheus est une espèce d'Australopithèque découverte en Afrique du Sud à Makapansgat et définie par Raymond Dart en 1948. L'espèce a longtemps été considérée par la plupart des chercheurs comme synonyme d'Australopithecus africanus.
+Le fossile très complet de Little Foot découvert à Sterkfontein pourrait être rattaché à cette espèce et pourrait conduire à mieux la caractériser. Une révision de l'histoire géologique du site (circa 2014) menée depuis 2007 indique que Little Foot aurait au moins 3 millions d'années,. Les scientifiques ont ensuite déterminé l’âge du squelette presque complet séparé du rocher auquel il était partiellement attaché. est 3,67 millions d’années
 </t>
         </is>
       </c>
